--- a/DatabaseUpdate/ExcelFiles/DBSettings.xlsx
+++ b/DatabaseUpdate/ExcelFiles/DBSettings.xlsx
@@ -1,106 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook"/>
-  <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="DBSettings Data" sheetId="2" r:id="rId2"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="125725"/>
-</x:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ChildCare\DatabaseUpdate\ExcelFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
+  </bookViews>
+  <sheets>
+    <sheet name="DBSettings Data" sheetId="2" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <x:si>
-    <x:t>Id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DisplayName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BeginDateTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EndDateTime</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>BeginDateTime</t>
+  </si>
+  <si>
+    <t>EndDateTime</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DefaultRecordTypeTime</t>
+  </si>
+  <si>
+    <t>8:00 - 12:00, 12:00 - 17:00</t>
+  </si>
+  <si>
+    <t>Время, проставляемое в расписании по умолчанию для новых типов услуг</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>CurrentLpuName</t>
+  </si>
+  <si>
+    <t>Больница №1</t>
+  </si>
+  <si>
+    <t>Название текущего ЛПУ</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -383,48 +404,91 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:H1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:8">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
+        <v>36526</v>
+      </c>
+      <c r="H2" s="1">
+        <v>72686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1">
+        <v>36526</v>
+      </c>
+      <c r="H3" s="1">
+        <v>72686</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>
--- a/DatabaseUpdate/ExcelFiles/DBSettings.xlsx
+++ b/DatabaseUpdate/ExcelFiles/DBSettings.xlsx
@@ -1,127 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ChildCare\DatabaseUpdate\ExcelFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
-  </bookViews>
-  <sheets>
-    <sheet name="DBSettings Data" sheetId="2" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:workbookPr codeName="ThisWorkbook"/>
+  <x:bookViews>
+    <x:workbookView firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Data" sheetId="2" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="125725"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>DisplayName</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>BeginDateTime</t>
-  </si>
-  <si>
-    <t>EndDateTime</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>DefaultRecordTypeTime</t>
-  </si>
-  <si>
-    <t>8:00 - 12:00, 12:00 - 17:00</t>
-  </si>
-  <si>
-    <t>Время, проставляемое в расписании по умолчанию для новых типов услуг</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>CurrentLpuName</t>
-  </si>
-  <si>
-    <t>Больница №1</t>
-  </si>
-  <si>
-    <t>Название текущего ЛПУ</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <x:si>
+    <x:t>Id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BeginDateTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EndDateTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DefaultRecordTypeTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8:00 - 12:00, 12:00 - 17:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Время, проставляемое в расписании по умолчанию для новых типов услуг</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CurrentLpuName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Больница №1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Название текущего ЛПУ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NotificationServiceAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>net.tcp://localhost:8733/NotificationServiceEngine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Адрес сервиса оповещений</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="1">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+</x:styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -404,91 +426,114 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1">
-        <v>36526</v>
-      </c>
-      <c r="H2" s="1">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1">
-        <v>36526</v>
-      </c>
-      <c r="H3" s="1">
-        <v>72686</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H4"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s"/>
+      <x:c r="E2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s"/>
+      <x:c r="G2" s="1">
+        <x:v>36526</x:v>
+      </x:c>
+      <x:c r="H2" s="1">
+        <x:v>72686</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s"/>
+      <x:c r="G3" s="1">
+        <x:v>36526</x:v>
+      </x:c>
+      <x:c r="H3" s="1">
+        <x:v>72686</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s"/>
+      <x:c r="G4" s="1">
+        <x:v>36526</x:v>
+      </x:c>
+      <x:c r="H4" s="1">
+        <x:v>72686</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/DatabaseUpdate/ExcelFiles/DBSettings.xlsx
+++ b/DatabaseUpdate/ExcelFiles/DBSettings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -55,16 +55,16 @@
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>CurrentLpuName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Больница №1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Название текущего ЛПУ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
+    <x:t>OrgName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Государственное бюджетное образовательное учреждение высшего профессионального образования «Российский национальный исследовательский медицинский университет имени Н.И.Пирогова» Министерства здравоохранения Российской Федерации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Полное название ЛПУ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
   </x:si>
   <x:si>
     <x:t>NotificationServiceAddress</x:t>
@@ -74,6 +74,129 @@
   </x:si>
   <x:si>
     <x:t>Адрес сервиса оповещений</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OrgOKPO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11223444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ОКПО ЛПУ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OrgShortName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ГБОУ ВПО РНИМУ им. Н.И. Пирогова МЗ РФ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сокращенное название ЛПУ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NIKIName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Научно-исследовательский клинический институт педиатрии им. академика Ю.Е. Вельтищева ГБОУ ВПО РНИМУ им. Н.И. Пирогова МЗ РФ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Научно-исследовательском клиническом институте педиатрии им. академика Ю.Е. Вельтищева ГБОУ ВПО РНИМУ им. Н.И. Пирогова МЗ РФ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Название обособленного структурного подразделения НИКИ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DirectorFullName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Школьникова Мария Александровна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Школьниковой Марии Александровны</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Директор НИКИ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PayContractLicense</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 марта 2014 года № 52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Доверенность на оказание платных услуг</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NIKIAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>125412, г. Москва, ул. Талдомская, д. 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Адрес НИКИ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OrgAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117997, г. Москва, ул. Островитянова, д. 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Юридический адрес</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DirectorShortName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Школьникова М.А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NIKIShortName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Научно-исследовательский клинический институт педиатрии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Научно-исследовательском клиническом институте педиатрии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сокращенное название обособленного структурного подразделения НИКИ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ChildAge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Возраст, старше которого человек считается взрослым</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -431,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H4"/>
+  <x:dimension ref="A1:H14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -482,7 +605,7 @@
         <x:v>36526</x:v>
       </x:c>
       <x:c r="H2" s="1">
-        <x:v>72686</x:v>
+        <x:v>2958100</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -504,7 +627,7 @@
         <x:v>36526</x:v>
       </x:c>
       <x:c r="H3" s="1">
-        <x:v>72686</x:v>
+        <x:v>2958100</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -526,7 +649,235 @@
         <x:v>36526</x:v>
       </x:c>
       <x:c r="H4" s="1">
-        <x:v>72686</x:v>
+        <x:v>2958100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s"/>
+      <x:c r="G5" s="1">
+        <x:v>36526</x:v>
+      </x:c>
+      <x:c r="H5" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s"/>
+      <x:c r="G6" s="1">
+        <x:v>36526</x:v>
+      </x:c>
+      <x:c r="H6" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s"/>
+      <x:c r="G7" s="1">
+        <x:v>36526</x:v>
+      </x:c>
+      <x:c r="H7" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s"/>
+      <x:c r="G8" s="1">
+        <x:v>36526</x:v>
+      </x:c>
+      <x:c r="H8" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s"/>
+      <x:c r="G9" s="1">
+        <x:v>36526</x:v>
+      </x:c>
+      <x:c r="H9" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
+      <x:c r="A10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s"/>
+      <x:c r="G10" s="1">
+        <x:v>36526</x:v>
+      </x:c>
+      <x:c r="H10" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s"/>
+      <x:c r="G11" s="1">
+        <x:v>36526</x:v>
+      </x:c>
+      <x:c r="H11" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="A12" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s"/>
+      <x:c r="G12" s="1">
+        <x:v>36526</x:v>
+      </x:c>
+      <x:c r="H12" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8">
+      <x:c r="A13" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s"/>
+      <x:c r="G13" s="1">
+        <x:v>36526</x:v>
+      </x:c>
+      <x:c r="H13" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8">
+      <x:c r="A14" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s"/>
+      <x:c r="G14" s="1">
+        <x:v>36526</x:v>
+      </x:c>
+      <x:c r="H14" s="1">
+        <x:v>2958100</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/DatabaseUpdate/ExcelFiles/DBSettings.xlsx
+++ b/DatabaseUpdate/ExcelFiles/DBSettings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -40,160 +40,100 @@
     <x:t>EndDateTime</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DefaultRecordTypeTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8:00 - 12:00, 12:00 - 17:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Время, проставляемое в расписании по умолчанию для новых типов услуг</x:t>
-  </x:si>
-  <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
     <x:t>OrgName</x:t>
   </x:si>
   <x:si>
-    <x:t>Государственное бюджетное образовательное учреждение высшего профессионального образования «Российский национальный исследовательский медицинский университет имени Н.И.Пирогова» Министерства здравоохранения Российской Федерации</x:t>
+    <x:t>КЛИНИКА</x:t>
   </x:si>
   <x:si>
     <x:t>Полное название ЛПУ</x:t>
   </x:si>
   <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NotificationServiceAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>net.tcp://localhost:8733/NotificationServiceEngine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Адрес сервиса оповещений</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OrgOKPO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11223444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ОКПО ЛПУ</x:t>
+  </x:si>
+  <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>NotificationServiceAddress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>net.tcp://localhost:8733/NotificationServiceEngine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Адрес сервиса оповещений</x:t>
+    <x:t>OrgShortName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сокращенное название ЛПУ</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>OrgOKPO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11223444</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ОКПО ЛПУ</x:t>
+    <x:t>DirectorFullName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>РУКОВОДИТЕЛЬ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Руководитель</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>OrgShortName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ГБОУ ВПО РНИМУ им. Н.И. Пирогова МЗ РФ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сокращенное название ЛПУ</x:t>
+    <x:t>PayContractLicense</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ДОВЕРЕННОСТЬ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Доверенность на оказание платных услуг</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>NIKIName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Научно-исследовательский клинический институт педиатрии им. академика Ю.Е. Вельтищева ГБОУ ВПО РНИМУ им. Н.И. Пирогова МЗ РФ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Научно-исследовательском клиническом институте педиатрии им. академика Ю.Е. Вельтищева ГБОУ ВПО РНИМУ им. Н.И. Пирогова МЗ РФ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Название обособленного структурного подразделения НИКИ</x:t>
+    <x:t>OrgAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>АДРЕС</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Юридический адрес</x:t>
   </x:si>
   <x:si>
     <x:t>11</x:t>
   </x:si>
   <x:si>
-    <x:t>DirectorFullName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Школьникова Мария Александровна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Школьниковой Марии Александровны</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Директор НИКИ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PayContractLicense</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 марта 2014 года № 52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Доверенность на оказание платных услуг</x:t>
+    <x:t>DirectorShortName</x:t>
   </x:si>
   <x:si>
     <x:t>13</x:t>
   </x:si>
   <x:si>
-    <x:t>NIKIAddress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>125412, г. Москва, ул. Талдомская, д. 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Адрес НИКИ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OrgAddress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117997, г. Москва, ул. Островитянова, д. 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Юридический адрес</x:t>
+    <x:t>ChildAge</x:t>
   </x:si>
   <x:si>
     <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DirectorShortName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Школьникова М.А.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NIKIShortName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Научно-исследовательский клинический институт педиатрии</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Научно-исследовательском клиническом институте педиатрии</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сокращенное название обособленного структурного подразделения НИКИ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ChildAge</x:t>
   </x:si>
   <x:si>
     <x:t>Возраст, старше которого человек считается взрослым</x:t>
@@ -554,7 +494,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H14"/>
+  <x:dimension ref="A1:H10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -596,11 +536,9 @@
       <x:c r="C2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s"/>
       <x:c r="E2" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s"/>
       <x:c r="G2" s="1">
         <x:v>36526</x:v>
       </x:c>
@@ -618,11 +556,9 @@
       <x:c r="C3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s"/>
       <x:c r="E3" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s"/>
       <x:c r="G3" s="1">
         <x:v>36526</x:v>
       </x:c>
@@ -640,11 +576,9 @@
       <x:c r="C4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s"/>
       <x:c r="E4" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s"/>
       <x:c r="G4" s="1">
         <x:v>36526</x:v>
       </x:c>
@@ -660,13 +594,11 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s"/>
       <x:c r="G5" s="1">
         <x:v>36526</x:v>
       </x:c>
@@ -676,19 +608,20 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s"/>
       <x:c r="G6" s="1">
         <x:v>36526</x:v>
       </x:c>
@@ -698,21 +631,17 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s"/>
       <x:c r="G7" s="1">
         <x:v>36526</x:v>
       </x:c>
@@ -722,21 +651,17 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="E8" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s"/>
       <x:c r="G8" s="1">
         <x:v>36526</x:v>
       </x:c>
@@ -746,19 +671,20 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s"/>
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="G9" s="1">
         <x:v>36526</x:v>
       </x:c>
@@ -768,115 +694,21 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s"/>
+        <x:v>39</x:v>
+      </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s"/>
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="G10" s="1">
         <x:v>36526</x:v>
       </x:c>
       <x:c r="H10" s="1">
-        <x:v>2958100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:8">
-      <x:c r="A11" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s"/>
-      <x:c r="G11" s="1">
-        <x:v>36526</x:v>
-      </x:c>
-      <x:c r="H11" s="1">
-        <x:v>2958100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:8">
-      <x:c r="A12" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s"/>
-      <x:c r="G12" s="1">
-        <x:v>36526</x:v>
-      </x:c>
-      <x:c r="H12" s="1">
-        <x:v>2958100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:8">
-      <x:c r="A13" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s"/>
-      <x:c r="G13" s="1">
-        <x:v>36526</x:v>
-      </x:c>
-      <x:c r="H13" s="1">
-        <x:v>2958100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:8">
-      <x:c r="A14" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s"/>
-      <x:c r="E14" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s"/>
-      <x:c r="G14" s="1">
-        <x:v>36526</x:v>
-      </x:c>
-      <x:c r="H14" s="1">
         <x:v>2958100</x:v>
       </x:c>
     </x:row>
